--- a/my-app/src/main/resources/LeetCode Problems - 2025.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems - 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713262C0-70A7-401D-8610-491D264BB206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1D0A0-6FBF-4638-BEF7-82969B899CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-21810" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="679">
   <si>
     <t>Difficulty</t>
   </si>
@@ -2074,6 +2074,9 @@
   </si>
   <si>
     <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Maximum Product of Three Numbers</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2284,8 +2287,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2567,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
-  <dimension ref="A1:AE481"/>
+  <dimension ref="A1:AE482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E482" sqref="E482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2580,8 +2582,7 @@
     <col min="3" max="3" width="11" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="51.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="38" customWidth="1"/>
+    <col min="7" max="8" width="8.54296875" customWidth="1"/>
     <col min="9" max="9" width="9.453125" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="15" max="15" width="28.453125" customWidth="1"/>
@@ -2618,7 +2619,7 @@
       <c r="G1" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1">
         <v>2025</v>
       </c>
       <c r="I1" t="s">
@@ -2710,7 +2711,7 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
@@ -2791,7 +2792,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
@@ -2832,7 +2833,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
@@ -2873,7 +2874,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
@@ -2894,7 +2895,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
@@ -2935,7 +2936,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
@@ -2956,7 +2957,7 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
@@ -2977,7 +2978,7 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
@@ -2998,7 +2999,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
@@ -3019,7 +3020,7 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
@@ -3040,7 +3041,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
@@ -3061,7 +3062,7 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
@@ -3122,7 +3123,7 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
@@ -3141,7 +3142,7 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
@@ -3160,7 +3161,7 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
@@ -3216,7 +3217,7 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="27">
@@ -3237,7 +3238,7 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
       <c r="J28">
         <v>1</v>
       </c>
@@ -3330,7 +3331,7 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -3351,7 +3352,7 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="27">
@@ -3372,7 +3373,7 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="38"/>
       <c r="V35">
         <v>1</v>
       </c>
@@ -3399,7 +3400,7 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
@@ -3464,7 +3465,7 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="27">
@@ -3485,7 +3486,7 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="38"/>
       <c r="Q40">
         <v>1</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
@@ -3528,7 +3529,7 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
@@ -3567,7 +3568,7 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="29">
@@ -3588,7 +3589,7 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="29">
@@ -3646,7 +3647,7 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
@@ -3667,7 +3668,7 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="24">
@@ -3683,7 +3684,7 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
@@ -3738,7 +3739,7 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="27">
@@ -3754,7 +3755,7 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="29">
@@ -3850,7 +3851,7 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="22">
@@ -3891,7 +3892,7 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
@@ -3932,7 +3933,7 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="28">
@@ -4013,7 +4014,7 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14">
@@ -4034,7 +4035,7 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="29">
@@ -4055,7 +4056,7 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="14">
@@ -4076,7 +4077,7 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="H70" s="39"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="24">
@@ -4097,7 +4098,7 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="14">
@@ -4118,7 +4119,7 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="14">
@@ -4139,7 +4140,7 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="14">
@@ -4160,7 +4161,7 @@
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="14">
@@ -4230,7 +4231,7 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="14">
@@ -4288,7 +4289,7 @@
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="22">
@@ -4309,7 +4310,7 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="38"/>
     </row>
     <row r="83" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
@@ -4330,7 +4331,7 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="38"/>
     </row>
     <row r="84" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="23">
@@ -4440,7 +4441,7 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
@@ -4495,7 +4496,7 @@
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="38"/>
     </row>
     <row r="93" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="24">
@@ -4516,7 +4517,7 @@
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="28">
@@ -4606,7 +4607,7 @@
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
@@ -4661,7 +4662,7 @@
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="H100" s="39"/>
+      <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
@@ -4699,7 +4700,7 @@
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
@@ -4738,7 +4739,7 @@
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
@@ -4793,7 +4794,7 @@
       <c r="F107">
         <v>1</v>
       </c>
-      <c r="H107" s="39"/>
+      <c r="H107" s="38"/>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
@@ -4814,7 +4815,7 @@
       <c r="F108">
         <v>1</v>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
@@ -4835,7 +4836,7 @@
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
@@ -4856,7 +4857,7 @@
       <c r="F110">
         <v>1</v>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
@@ -4927,7 +4928,7 @@
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="38"/>
     </row>
     <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="24">
@@ -4948,7 +4949,7 @@
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="38"/>
     </row>
     <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="24">
@@ -4964,7 +4965,7 @@
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
@@ -4985,7 +4986,7 @@
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="38"/>
     </row>
     <row r="118" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
@@ -5023,7 +5024,7 @@
       <c r="F119">
         <v>1</v>
       </c>
-      <c r="H119" s="39"/>
+      <c r="H119" s="38"/>
     </row>
     <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A120" s="14">
@@ -5061,7 +5062,7 @@
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A122" s="29">
@@ -5082,7 +5083,7 @@
       <c r="F122">
         <v>1</v>
       </c>
-      <c r="H122" s="39"/>
+      <c r="H122" s="38"/>
     </row>
     <row r="123" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
@@ -5103,7 +5104,7 @@
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="38"/>
     </row>
     <row r="124" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
@@ -5124,7 +5125,7 @@
       <c r="F124">
         <v>1</v>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="38"/>
       <c r="K124">
         <v>1</v>
       </c>
@@ -5171,7 +5172,7 @@
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="38"/>
     </row>
     <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="28">
@@ -5190,7 +5191,7 @@
       <c r="F127">
         <v>1</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="38"/>
     </row>
     <row r="128" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="22">
@@ -5246,7 +5247,7 @@
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="38"/>
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="22">
@@ -5267,7 +5268,7 @@
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="38"/>
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="14">
@@ -5288,7 +5289,7 @@
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="38"/>
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="22">
@@ -5309,7 +5310,7 @@
       <c r="F133">
         <v>1</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="14">
@@ -5347,7 +5348,7 @@
       <c r="F135">
         <v>1</v>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="38"/>
     </row>
     <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="13">
@@ -5368,7 +5369,7 @@
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="H136" s="39"/>
+      <c r="H136" s="38"/>
     </row>
     <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="14">
@@ -5389,7 +5390,7 @@
       <c r="F137">
         <v>1</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="38"/>
     </row>
     <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="29">
@@ -5430,7 +5431,7 @@
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="H139" s="39"/>
+      <c r="H139" s="38"/>
     </row>
     <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="27">
@@ -5451,7 +5452,7 @@
       <c r="F140">
         <v>1</v>
       </c>
-      <c r="H140" s="39"/>
+      <c r="H140" s="38"/>
       <c r="O140">
         <v>1</v>
       </c>
@@ -5515,7 +5516,7 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="H143" s="39"/>
+      <c r="H143" s="38"/>
     </row>
     <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="14">
@@ -5590,7 +5591,7 @@
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="H147" s="39"/>
+      <c r="H147" s="38"/>
     </row>
     <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A148" s="23">
@@ -5611,7 +5612,7 @@
       <c r="F148">
         <v>1</v>
       </c>
-      <c r="H148" s="39"/>
+      <c r="H148" s="38"/>
     </row>
     <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A149" s="14">
@@ -5666,7 +5667,7 @@
       <c r="F151">
         <v>1</v>
       </c>
-      <c r="H151" s="39"/>
+      <c r="H151" s="38"/>
     </row>
     <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
@@ -5687,7 +5688,7 @@
       <c r="F152">
         <v>1</v>
       </c>
-      <c r="H152" s="39"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A153" s="24">
@@ -5802,7 +5803,7 @@
       <c r="F158">
         <v>1</v>
       </c>
-      <c r="H158" s="39"/>
+      <c r="H158" s="38"/>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A159" s="28">
@@ -5866,7 +5867,7 @@
       <c r="F161">
         <v>1</v>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="38"/>
     </row>
     <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A162" s="29">
@@ -5885,7 +5886,7 @@
       <c r="F162">
         <v>1</v>
       </c>
-      <c r="H162" s="39"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A163" s="14">
@@ -5943,7 +5944,7 @@
       <c r="F165">
         <v>1</v>
       </c>
-      <c r="H165" s="39"/>
+      <c r="H165" s="38"/>
     </row>
     <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A166" s="23">
@@ -5964,7 +5965,7 @@
       <c r="F166">
         <v>1</v>
       </c>
-      <c r="H166" s="39"/>
+      <c r="H166" s="38"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A167" s="27">
@@ -6005,7 +6006,7 @@
       <c r="F168">
         <v>1</v>
       </c>
-      <c r="H168" s="39"/>
+      <c r="H168" s="38"/>
     </row>
     <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A169" s="14">
@@ -6143,7 +6144,7 @@
       <c r="F175">
         <v>1</v>
       </c>
-      <c r="H175" s="39"/>
+      <c r="H175" s="38"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A176" s="24">
@@ -6179,7 +6180,7 @@
       <c r="F177">
         <v>1</v>
       </c>
-      <c r="H177" s="39"/>
+      <c r="H177" s="38"/>
     </row>
     <row r="178" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A178" s="24">
@@ -6290,7 +6291,7 @@
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="H183" s="39"/>
+      <c r="H183" s="38"/>
     </row>
     <row r="184" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A184" s="14">
@@ -6311,7 +6312,7 @@
       <c r="F184">
         <v>1</v>
       </c>
-      <c r="H184" s="39"/>
+      <c r="H184" s="38"/>
     </row>
     <row r="185" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A185" s="13">
@@ -6332,7 +6333,7 @@
       <c r="F185">
         <v>1</v>
       </c>
-      <c r="H185" s="39"/>
+      <c r="H185" s="38"/>
     </row>
     <row r="186" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A186" s="26">
@@ -6443,7 +6444,7 @@
       <c r="F191">
         <v>1</v>
       </c>
-      <c r="H191" s="39"/>
+      <c r="H191" s="38"/>
     </row>
     <row r="192" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A192" s="28">
@@ -6502,7 +6503,7 @@
       <c r="F194">
         <v>1</v>
       </c>
-      <c r="H194" s="39"/>
+      <c r="H194" s="38"/>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A195" s="31">
@@ -6523,7 +6524,7 @@
       <c r="F195">
         <v>1</v>
       </c>
-      <c r="H195" s="39"/>
+      <c r="H195" s="38"/>
     </row>
     <row r="196" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A196" s="13">
@@ -6544,7 +6545,7 @@
       <c r="F196">
         <v>1</v>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="38"/>
     </row>
     <row r="197" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A197" s="28">
@@ -6603,7 +6604,7 @@
       <c r="F199">
         <v>1</v>
       </c>
-      <c r="H199" s="39"/>
+      <c r="H199" s="38"/>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A200" s="31">
@@ -6624,7 +6625,7 @@
       <c r="F200">
         <v>1</v>
       </c>
-      <c r="H200" s="39"/>
+      <c r="H200" s="38"/>
       <c r="I200">
         <v>1</v>
       </c>
@@ -6648,7 +6649,7 @@
       <c r="F201">
         <v>1</v>
       </c>
-      <c r="H201" s="39"/>
+      <c r="H201" s="38"/>
     </row>
     <row r="202" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A202" s="29">
@@ -6753,7 +6754,7 @@
       <c r="F206">
         <v>1</v>
       </c>
-      <c r="H206" s="39"/>
+      <c r="H206" s="38"/>
     </row>
     <row r="207" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A207" s="24">
@@ -6774,7 +6775,7 @@
       <c r="F207">
         <v>1</v>
       </c>
-      <c r="H207" s="39"/>
+      <c r="H207" s="38"/>
     </row>
     <row r="208" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A208" s="24">
@@ -6815,7 +6816,7 @@
       <c r="F209">
         <v>1</v>
       </c>
-      <c r="H209" s="39"/>
+      <c r="H209" s="38"/>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A210" s="13">
@@ -6911,7 +6912,7 @@
       <c r="F214">
         <v>1</v>
       </c>
-      <c r="H214" s="39"/>
+      <c r="H214" s="38"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="31">
@@ -6972,7 +6973,7 @@
       <c r="F217">
         <v>1</v>
       </c>
-      <c r="H217" s="39"/>
+      <c r="H217" s="38"/>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A218" s="24">
@@ -7033,7 +7034,7 @@
       <c r="F220">
         <v>1</v>
       </c>
-      <c r="H220" s="39"/>
+      <c r="H220" s="38"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="31">
@@ -7054,7 +7055,7 @@
       <c r="F221">
         <v>1</v>
       </c>
-      <c r="H221" s="39"/>
+      <c r="H221" s="38"/>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A222" s="28">
@@ -7095,7 +7096,7 @@
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="H223" s="39"/>
+      <c r="H223" s="38"/>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A224" s="14">
@@ -7116,7 +7117,7 @@
       <c r="F224">
         <v>1</v>
       </c>
-      <c r="H224" s="39"/>
+      <c r="H224" s="38"/>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" s="20">
@@ -7177,7 +7178,7 @@
       <c r="F227">
         <v>1</v>
       </c>
-      <c r="H227" s="39"/>
+      <c r="H227" s="38"/>
     </row>
     <row r="228" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A228" s="24">
@@ -7247,7 +7248,7 @@
       <c r="F230">
         <v>1</v>
       </c>
-      <c r="H230" s="39"/>
+      <c r="H230" s="38"/>
     </row>
     <row r="231" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A231" s="22">
@@ -7288,7 +7289,7 @@
       <c r="F232">
         <v>1</v>
       </c>
-      <c r="H232" s="39"/>
+      <c r="H232" s="38"/>
     </row>
     <row r="233" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A233" s="14">
@@ -7309,7 +7310,7 @@
       <c r="F233">
         <v>1</v>
       </c>
-      <c r="H233" s="39"/>
+      <c r="H233" s="38"/>
     </row>
     <row r="234" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A234" s="14">
@@ -7416,7 +7417,7 @@
       <c r="F238">
         <v>1</v>
       </c>
-      <c r="H238" s="39"/>
+      <c r="H238" s="38"/>
     </row>
     <row r="239" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A239" s="23">
@@ -7492,7 +7493,7 @@
       <c r="F242">
         <v>1</v>
       </c>
-      <c r="H242" s="39"/>
+      <c r="H242" s="38"/>
     </row>
     <row r="243" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A243" s="13">
@@ -7513,7 +7514,7 @@
       <c r="F243">
         <v>1</v>
       </c>
-      <c r="H243" s="39"/>
+      <c r="H243" s="38"/>
     </row>
     <row r="244" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A244" s="24">
@@ -7651,7 +7652,7 @@
       <c r="F250">
         <v>1</v>
       </c>
-      <c r="H250" s="39"/>
+      <c r="H250" s="38"/>
       <c r="K250">
         <v>1</v>
       </c>
@@ -7735,7 +7736,7 @@
       <c r="F254">
         <v>1</v>
       </c>
-      <c r="H254" s="39"/>
+      <c r="H254" s="38"/>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A255" s="25">
@@ -7796,7 +7797,7 @@
       <c r="F257">
         <v>1</v>
       </c>
-      <c r="H257" s="39"/>
+      <c r="H257" s="38"/>
     </row>
     <row r="258" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A258" s="22">
@@ -7877,7 +7878,7 @@
       <c r="F261">
         <v>1</v>
       </c>
-      <c r="H261" s="39"/>
+      <c r="H261" s="38"/>
     </row>
     <row r="262" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A262" s="22">
@@ -7918,7 +7919,7 @@
       <c r="F263">
         <v>1</v>
       </c>
-      <c r="H263" s="39"/>
+      <c r="H263" s="38"/>
     </row>
     <row r="264" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A264" s="20">
@@ -8106,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="G272"/>
-      <c r="H272" s="38"/>
+      <c r="H272"/>
       <c r="I272"/>
       <c r="J272"/>
       <c r="K272"/>
@@ -8150,7 +8151,7 @@
       <c r="F273">
         <v>1</v>
       </c>
-      <c r="H273" s="39"/>
+      <c r="H273" s="38"/>
     </row>
     <row r="274" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A274" s="14">
@@ -8215,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="G276"/>
-      <c r="H276" s="38"/>
+      <c r="H276"/>
       <c r="I276"/>
       <c r="J276"/>
       <c r="K276"/>
@@ -8302,7 +8303,7 @@
       <c r="F279">
         <v>1</v>
       </c>
-      <c r="H279" s="39"/>
+      <c r="H279" s="38"/>
     </row>
     <row r="280" spans="1:31" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="31">
@@ -8324,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="G280"/>
-      <c r="H280" s="38"/>
+      <c r="H280"/>
       <c r="I280"/>
       <c r="J280"/>
       <c r="K280"/>
@@ -8371,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="G281"/>
-      <c r="H281" s="38"/>
+      <c r="H281"/>
       <c r="I281"/>
       <c r="J281"/>
       <c r="K281"/>
@@ -8569,7 +8570,7 @@
       <c r="F290">
         <v>2</v>
       </c>
-      <c r="H290" s="39">
+      <c r="H290" s="38">
         <v>44839</v>
       </c>
     </row>
@@ -8612,7 +8613,7 @@
       <c r="F292">
         <v>2</v>
       </c>
-      <c r="H292" s="39">
+      <c r="H292" s="38">
         <v>44865</v>
       </c>
     </row>
@@ -8752,7 +8753,7 @@
       <c r="F299">
         <v>2</v>
       </c>
-      <c r="H299" s="39">
+      <c r="H299" s="38">
         <v>44807</v>
       </c>
       <c r="I299" s="34"/>
@@ -8858,7 +8859,7 @@
       <c r="F303">
         <v>2</v>
       </c>
-      <c r="H303" s="39">
+      <c r="H303" s="38">
         <v>44807</v>
       </c>
     </row>
@@ -9004,7 +9005,7 @@
       <c r="F310">
         <v>2</v>
       </c>
-      <c r="H310" s="39">
+      <c r="H310" s="38">
         <v>44812</v>
       </c>
     </row>
@@ -9104,7 +9105,7 @@
       <c r="F314">
         <v>2</v>
       </c>
-      <c r="H314" s="39">
+      <c r="H314" s="38">
         <v>44807</v>
       </c>
     </row>
@@ -9127,7 +9128,7 @@
       <c r="F315">
         <v>2</v>
       </c>
-      <c r="H315" s="39">
+      <c r="H315" s="38">
         <v>44845</v>
       </c>
     </row>
@@ -9150,7 +9151,7 @@
       <c r="F316">
         <v>2</v>
       </c>
-      <c r="H316" s="39">
+      <c r="H316" s="38">
         <v>44807</v>
       </c>
     </row>
@@ -9295,7 +9296,7 @@
       <c r="F324">
         <v>3</v>
       </c>
-      <c r="H324" s="39">
+      <c r="H324" s="38">
         <v>44853</v>
       </c>
     </row>
@@ -9506,7 +9507,7 @@
       <c r="F336">
         <v>3</v>
       </c>
-      <c r="H336" s="39">
+      <c r="H336" s="38">
         <v>44852</v>
       </c>
     </row>
@@ -9801,7 +9802,7 @@
       <c r="F353">
         <v>3</v>
       </c>
-      <c r="H353" s="39">
+      <c r="H353" s="38">
         <v>44853</v>
       </c>
     </row>
@@ -10382,7 +10383,7 @@
       <c r="F385">
         <v>3</v>
       </c>
-      <c r="H385" s="39">
+      <c r="H385" s="38">
         <v>44850</v>
       </c>
     </row>
@@ -10691,7 +10692,7 @@
       <c r="E404" t="s">
         <v>388</v>
       </c>
-      <c r="H404" s="39">
+      <c r="H404" s="38">
         <v>44838</v>
       </c>
     </row>
@@ -10916,7 +10917,7 @@
       <c r="E419" t="s">
         <v>632</v>
       </c>
-      <c r="H419" s="39">
+      <c r="H419" s="38">
         <v>44852</v>
       </c>
     </row>
@@ -10950,7 +10951,7 @@
       <c r="E421" t="s">
         <v>641</v>
       </c>
-      <c r="H421" s="39">
+      <c r="H421" s="38">
         <v>44864</v>
       </c>
     </row>
@@ -10968,7 +10969,7 @@
       <c r="E422" t="s">
         <v>634</v>
       </c>
-      <c r="H422" s="39">
+      <c r="H422" s="38">
         <v>44859</v>
       </c>
     </row>
@@ -11117,7 +11118,7 @@
       <c r="E432" t="s">
         <v>615</v>
       </c>
-      <c r="H432" s="39">
+      <c r="H432" s="38">
         <v>44827</v>
       </c>
     </row>
@@ -11224,7 +11225,7 @@
       <c r="E439" t="s">
         <v>619</v>
       </c>
-      <c r="H439" s="39">
+      <c r="H439" s="38">
         <v>44835</v>
       </c>
     </row>
@@ -11242,7 +11243,7 @@
       <c r="E440" t="s">
         <v>485</v>
       </c>
-      <c r="H440" s="39">
+      <c r="H440" s="38">
         <v>44860</v>
       </c>
     </row>
@@ -11288,7 +11289,7 @@
       <c r="E443" t="s">
         <v>393</v>
       </c>
-      <c r="H443" s="39">
+      <c r="H443" s="38">
         <v>44837</v>
       </c>
     </row>
@@ -11381,7 +11382,7 @@
       <c r="E449" t="s">
         <v>626</v>
       </c>
-      <c r="H449" s="39">
+      <c r="H449" s="38">
         <v>44850</v>
       </c>
     </row>
@@ -11441,7 +11442,7 @@
       <c r="E453" t="s">
         <v>388</v>
       </c>
-      <c r="H453" s="39">
+      <c r="H453" s="38">
         <v>44840</v>
       </c>
     </row>
@@ -11658,7 +11659,7 @@
       <c r="E468" t="s">
         <v>465</v>
       </c>
-      <c r="H468" s="39">
+      <c r="H468" s="38">
         <v>44837</v>
       </c>
     </row>
@@ -11690,7 +11691,7 @@
       <c r="E470" t="s">
         <v>630</v>
       </c>
-      <c r="H470" s="39">
+      <c r="H470" s="38">
         <v>44853</v>
       </c>
     </row>
@@ -11708,7 +11709,7 @@
       <c r="E471" t="s">
         <v>590</v>
       </c>
-      <c r="H471" s="39">
+      <c r="H471" s="38">
         <v>44827</v>
       </c>
     </row>
@@ -11740,7 +11741,7 @@
       <c r="E473" t="s">
         <v>486</v>
       </c>
-      <c r="H473" s="39">
+      <c r="H473" s="38">
         <v>44837</v>
       </c>
     </row>
@@ -11786,7 +11787,7 @@
       <c r="E476" t="s">
         <v>624</v>
       </c>
-      <c r="H476" s="39">
+      <c r="H476" s="38">
         <v>44825</v>
       </c>
     </row>
@@ -11832,11 +11833,11 @@
       <c r="E479" t="s">
         <v>424</v>
       </c>
-      <c r="H479" s="39">
+      <c r="H479" s="38">
         <v>44852</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A480" s="28">
         <v>1498</v>
       </c>
@@ -11850,7 +11851,7 @@
       <c r="E480" t="s">
         <v>614</v>
       </c>
-      <c r="H480" s="39">
+      <c r="H480" s="38">
         <v>44827</v>
       </c>
     </row>
@@ -11866,6 +11867,17 @@
       </c>
       <c r="D481" s="11">
         <v>104</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A482" s="11">
+        <v>628</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="C482" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12350,9 +12362,10 @@
     <hyperlink ref="B87" r:id="rId475" xr:uid="{922B585D-7788-447D-AC94-7D7BDC50FAA1}"/>
     <hyperlink ref="B116" r:id="rId476" xr:uid="{71518ED8-7D7F-4DD9-BAED-D1ABDA91376B}"/>
     <hyperlink ref="B50" r:id="rId477" xr:uid="{2722DF83-A881-4A81-A3F5-58A4ECADB372}"/>
+    <hyperlink ref="B482" r:id="rId478" xr:uid="{22129178-94A4-49AD-8E9D-77016F37B43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId478"/>
+  <pageSetup orientation="portrait" r:id="rId479"/>
 </worksheet>
 </file>
 
